--- a/manualTesks/bugReport.xlsx
+++ b/manualTesks/bugReport.xlsx
@@ -93,121 +93,121 @@
 Page</t>
   </si>
   <si>
+    <t xml:space="preserve">*All The Scripts are written
+ in Turkish
+</t>
+  </si>
+  <si>
+    <t>*High Impact
+*impacts the UX</t>
+  </si>
+  <si>
+    <t>*Communications category 
+is disabled and all the associated 
+records are affected</t>
+  </si>
+  <si>
+    <t>*No change in the associated records.</t>
+  </si>
+  <si>
+    <t>walkthrough script is still displayed 
+after opening the right side menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Clear app cash
+*Open The app.
+*Open The right side menu.
+</t>
+  </si>
+  <si>
+    <t>The side menu is displayed
+The walkthrough script disappears</t>
+  </si>
+  <si>
+    <t>The side menu is displayed
+The walkthrough script appears</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>*Medium Impact
+*impacts the UI</t>
+  </si>
+  <si>
+    <t>each category has an arrow</t>
+  </si>
+  <si>
+    <t>some categories have no arrows</t>
+  </si>
+  <si>
+    <t>the percentage of categories is not precisely calculated</t>
+  </si>
+  <si>
+    <t>the percentage is 0.4%</t>
+  </si>
+  <si>
+    <t>the percentage is 0%</t>
+  </si>
+  <si>
+    <t>*Low Impact
+*impacts the UI</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Medium Impact
+*impacts the functionality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Medium Impact
+*impacts the UI </t>
+  </si>
+  <si>
+    <t>the home page view is the same</t>
+  </si>
+  <si>
+    <t>Open the App
+Add more than 15 category</t>
+  </si>
+  <si>
+    <t>The "EXPENSE" and "INCOME" Buttons 
+are converted to "+" and "-"</t>
+  </si>
+  <si>
+    <t>the "EXPENSE" and "INCOME" Buttons
+are converted to "+" and "-"</t>
+  </si>
+  <si>
+    <t>* recurring records feature 
+is written in English</t>
+  </si>
+  <si>
+    <t>missing arrows that related to some categories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Open the App
+*Kill the app for 3 times
+</t>
+  </si>
+  <si>
+    <t>*open the app
+*add over all expenses more 
+than 100000000
+*add 4000 at "Gift" category</t>
+  </si>
+  <si>
+    <t>After Changing the language to Turkish,
+ the English scripts still appear</t>
+  </si>
+  <si>
     <t xml:space="preserve">*Open The app.
 *Open The right side menu.
 *Press on "Settings".
 *Press on "Language".
-*select "Turkce"
+*select "Turkish"
 *Open "Monefy Pro" Page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*All The Scripts are written
- in Turkish
-</t>
-  </si>
-  <si>
-    <t>*High Impact
-*impacts the UX</t>
-  </si>
-  <si>
-    <t>*Communications category 
-is disabled and all the associated 
-records are affected</t>
-  </si>
-  <si>
-    <t>*No change in the associated records.</t>
-  </si>
-  <si>
-    <t>walkthrough script is still displayed 
-after opening the right side menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Clear app cash
-*Open The app.
-*Open The right side menu.
-</t>
-  </si>
-  <si>
-    <t>The side menu is displayed
-The walkthrough script disappears</t>
-  </si>
-  <si>
-    <t>The side menu is displayed
-The walkthrough script appears</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>*Medium Impact
-*impacts the UI</t>
-  </si>
-  <si>
-    <t>each category has an arrow</t>
-  </si>
-  <si>
-    <t>some categories have no arrows</t>
-  </si>
-  <si>
-    <t>the percentage of categories is not precisely calculated</t>
-  </si>
-  <si>
-    <t>the percentage is 0.4%</t>
-  </si>
-  <si>
-    <t>the percentage is 0%</t>
-  </si>
-  <si>
-    <t>*Low Impact
-*impacts the UI</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Medium Impact
-*impacts the functionality </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Medium Impact
-*impacts the UI </t>
-  </si>
-  <si>
-    <t>the home page view is the same</t>
-  </si>
-  <si>
-    <t>Open the App
-Add more than 15 category</t>
-  </si>
-  <si>
-    <t>*open the app
-*add over all expences more 
-than 100000000
-*add 4000 at "Gift" category</t>
-  </si>
-  <si>
-    <t>The "EXPENSE" and "INCOME" Buttons 
-are converted to "+" and "-"</t>
-  </si>
-  <si>
-    <t>the "EXPENSE" and "INCOME" Buttons
-are converted to "+" and "-"</t>
-  </si>
-  <si>
-    <t>After Changing the language to Turkish,
- english scripts still appear</t>
-  </si>
-  <si>
-    <t>* recurring records feature 
-is written in English</t>
-  </si>
-  <si>
-    <t>missing arrows that related to some categories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Open the App
-*Kill the app for 3 times
 </t>
   </si>
 </sst>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -990,16 +990,16 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="408.6" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>9</v>
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="378.6" customHeight="1">
@@ -1025,10 +1025,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
@@ -1048,16 +1048,16 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="409.2" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
@@ -1066,27 +1066,27 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="385.2" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
@@ -1095,27 +1095,27 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="331.2" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
@@ -1124,27 +1124,27 @@
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="409.2" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
@@ -1153,13 +1153,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1"/>
